--- a/jpcore-r4/feature/swg1-「通常の文字列検索」に濁点・半濁点の処理を追記する/CodeSystem-jp-procedure-codes-stem7-cs.xlsx
+++ b/jpcore-r4/feature/swg1-「通常の文字列検索」に濁点・半濁点の処理を追記する/CodeSystem-jp-procedure-codes-stem7-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T10:57:51+00:00</t>
+    <t>2022-07-05T09:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
